--- a/mapping/input_list_SBO.xlsx
+++ b/mapping/input_list_SBO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>input_list_IRI</t>
   </si>
@@ -31,22 +31,40 @@
     <t>no IRI</t>
   </si>
   <si>
-    <t>{'Substrate'}</t>
-  </si>
-  <si>
-    <t>{'Reduction'}</t>
+    <t>{'substrate'}</t>
+  </si>
+  <si>
+    <t>{'oxidation'}</t>
+  </si>
+  <si>
+    <t>{'reduction'}</t>
+  </si>
+  <si>
+    <t>{'reactant'}</t>
   </si>
   <si>
     <t>http://biomodels.net/SBO/SBO_0000015</t>
   </si>
   <si>
+    <t>http://biomodels.net/SBO/SBO_0000201</t>
+  </si>
+  <si>
     <t>http://biomodels.net/SBO/SBO_0000202</t>
   </si>
   <si>
-    <t>{'label': 'Substrate'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Reduction'}</t>
+    <t>http://biomodels.net/SBO/SBO_0000010</t>
+  </si>
+  <si>
+    <t>{'label': 'substrate'}</t>
+  </si>
+  <si>
+    <t>{'label': 'oxidation'}</t>
+  </si>
+  <si>
+    <t>{'label': 'reduction'}</t>
+  </si>
+  <si>
+    <t>{'label': 'reactant'}</t>
   </si>
 </sst>
 </file>
@@ -417,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,10 +466,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -465,16 +483,52 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
